--- a/SI/LITIA/Litia.xlsx
+++ b/SI/LITIA/Litia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\_mine_models\SI\LITIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A17309-8A78-44FC-9289-5C45A4D424F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B2F347-D33B-471C-AEC8-A28F392E4E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18120" yWindow="-120" windowWidth="18240" windowHeight="28320" activeTab="1" xr2:uid="{AF24A16E-966A-4466-B32A-2F108CFFC6A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{AF24A16E-966A-4466-B32A-2F108CFFC6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>Main</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Other expenses</t>
   </si>
   <si>
-    <t>financial outcome</t>
-  </si>
-  <si>
     <t>Financial income</t>
   </si>
   <si>
@@ -244,14 +241,48 @@
   </si>
   <si>
     <t>EPS</t>
+  </si>
+  <si>
+    <t>FY2024</t>
+  </si>
+  <si>
+    <t>Poslovni izid</t>
+  </si>
+  <si>
+    <t>Poslovni BT</t>
+  </si>
+  <si>
+    <t>Takover threshold</t>
+  </si>
+  <si>
+    <t>FY2025</t>
+  </si>
+  <si>
+    <t>FY2026</t>
+  </si>
+  <si>
+    <t>FY2027</t>
+  </si>
+  <si>
+    <t>FY2028</t>
+  </si>
+  <si>
+    <t>FY2029</t>
+  </si>
+  <si>
+    <t>FY2030</t>
+  </si>
+  <si>
+    <t>FY2031</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -357,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -371,7 +402,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -756,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081F3332-D647-4BE0-961D-73C7C6504B95}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,12 +804,15 @@
     <col min="7" max="7" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -786,10 +821,17 @@
         <v>44</v>
       </c>
       <c r="G2">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="I2">
+        <v>0.25</v>
+      </c>
+      <c r="J2">
+        <f>+I2*G2*G3/1000000</f>
+        <v>2.8050000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -799,8 +841,11 @@
       <c r="F3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -810,8 +855,12 @@
       <c r="F4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>+G3*G2/1000000</f>
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -821,8 +870,11 @@
       <c r="F5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -832,8 +884,11 @@
       <c r="F6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -843,8 +898,12 @@
       <c r="F7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f>+G4-G5+G6</f>
+        <v>11.186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>45408</v>
       </c>
@@ -852,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -860,7 +919,7 @@
         <v>1254103000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -868,7 +927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
@@ -876,7 +935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
@@ -896,7 +955,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -916,7 +975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
@@ -936,7 +995,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -953,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -973,13 +1032,25 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <f>18468/243</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <f>480*76</f>
+        <v>36480</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -989,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72807F2E-4A43-4BDA-B4D3-65F0B45EEC42}">
-  <dimension ref="A2:J23"/>
+  <dimension ref="A2:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1001,15 +1072,16 @@
     <col min="3" max="3" width="25" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="10"/>
     <col min="5" max="6" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
+    <col min="7" max="8" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E4" s="10" t="s">
         <v>54</v>
       </c>
@@ -1028,210 +1100,468 @@
       <c r="J4" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="11">
-        <f>+SUM(E6:E7)</f>
-        <v>32230632</v>
+        <f>(+SUM(E6:E7))</f>
+        <v>32230.631999999998</v>
       </c>
       <c r="F5" s="11">
-        <f>+SUM(F6:F7)</f>
-        <v>33477711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(+SUM(F6:F7))</f>
+        <v>33477.710999999996</v>
+      </c>
+      <c r="G5" s="11">
+        <v>31304.403999999999</v>
+      </c>
+      <c r="H5" s="11">
+        <v>35805.64</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C6" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="11">
-        <v>848069</v>
+        <v>848.06899999999996</v>
       </c>
       <c r="F6" s="11">
-        <v>781698</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>781.69799999999998</v>
+      </c>
+      <c r="G6" s="11">
+        <v>607.00800000000004</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1262.481</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="11">
-        <v>31382563</v>
+        <v>31382.562999999998</v>
       </c>
       <c r="F7" s="11">
-        <v>32696013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="10" t="s">
+        <v>32696.012999999999</v>
+      </c>
+      <c r="G7" s="11">
+        <v>30697.396000000001</v>
+      </c>
+      <c r="H7" s="11">
+        <v>34543.159</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="11">
-        <v>1378399</v>
-      </c>
-      <c r="F8" s="11">
-        <v>-303746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C9" s="10" t="s">
+      <c r="E9" s="11">
+        <v>1378.3989999999999</v>
+      </c>
+      <c r="F9" s="11">
+        <v>-303.74599999999998</v>
+      </c>
+      <c r="G9" s="11">
+        <v>-217.98699999999999</v>
+      </c>
+      <c r="H9" s="11">
+        <v>-919.673</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="11">
-        <v>973573</v>
-      </c>
-      <c r="F9" s="11">
-        <v>610307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C10" s="10" t="s">
+      <c r="E10" s="11">
+        <v>973.57299999999998</v>
+      </c>
+      <c r="F10" s="11">
+        <v>610.30700000000002</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1058.8281058827999</v>
+      </c>
+      <c r="H10" s="11">
+        <v>659.96</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="11">
-        <v>23669580</v>
-      </c>
-      <c r="F10" s="11">
-        <v>22885200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C11" s="10" t="s">
+      <c r="E11" s="11">
+        <v>23669.58</v>
+      </c>
+      <c r="F11" s="11">
+        <v>22885.200000000001</v>
+      </c>
+      <c r="G11" s="11">
+        <v>-20830.039000000001</v>
+      </c>
+      <c r="H11" s="11">
+        <v>-23428.152999999998</v>
+      </c>
+      <c r="I11" s="14">
+        <v>21095</v>
+      </c>
+      <c r="J11" s="10">
+        <v>21354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="11">
-        <f>-1*(-1038294-122191-848369-4831932)</f>
-        <v>6840786</v>
-      </c>
-      <c r="F11" s="11">
-        <f>1109303+129327+884515+5539642</f>
-        <v>7662787</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C12" s="10" t="s">
+      <c r="E12" s="11">
+        <f>(-1*(-1038294-122191-848369-4831932))/1000</f>
+        <v>6840.7860000000001</v>
+      </c>
+      <c r="F12" s="11">
+        <f>(1109303+129327+884515+5539642)/1000</f>
+        <v>7662.7870000000003</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-7746.848</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-8397.9410000000007</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="11">
-        <v>2294453</v>
-      </c>
-      <c r="F12" s="10">
-        <v>2234540</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C13" s="10" t="s">
+      <c r="E13" s="11">
+        <v>2294.453</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2234.54</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-2044.421</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-1891.703</v>
+      </c>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="11">
-        <v>197748</v>
-      </c>
-      <c r="F13" s="10">
-        <v>180855</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C14" s="10" t="s">
+      <c r="E14" s="11">
+        <v>197.74799999999999</v>
+      </c>
+      <c r="F14" s="11">
+        <v>180.85499999999999</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-219.33699999999999</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-335.22500000000002</v>
+      </c>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="11">
+        <f>(+E5+E10-E11-E12-E13-E14+E9)</f>
+        <v>1580.0369999999925</v>
+      </c>
+      <c r="F15" s="11">
+        <f>(+F5+F10-F11-F12-F13-F14+F9)</f>
+        <v>820.88999999999544</v>
+      </c>
+      <c r="G15" s="11">
+        <f>(+G5+G10+G11+G12+G13+G14+G9)</f>
+        <v>1304.6001058827976</v>
+      </c>
+      <c r="H15" s="11">
+        <f>(+H5+H10+H11+H12+H13+H14+H9)</f>
+        <v>1492.9049999999995</v>
+      </c>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="11">
-        <f>+E5+E9-E10-E11-E12-E13+E8</f>
-        <v>1580037</v>
-      </c>
-      <c r="F14" s="11">
-        <f>+F5+F9-F10-F11-F12-F13+F8</f>
-        <v>820890</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="10" t="s">
+      <c r="E17" s="11">
+        <v>108.38800000000001</v>
+      </c>
+      <c r="F17" s="11">
+        <v>99.024000000000001</v>
+      </c>
+      <c r="G17" s="11">
+        <v>49.066000000000003</v>
+      </c>
+      <c r="H17" s="11">
+        <v>140.596</v>
+      </c>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="10">
-        <v>108388</v>
-      </c>
-      <c r="F15" s="10">
-        <v>99024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="10" t="s">
+      <c r="E18" s="11">
+        <v>89.5</v>
+      </c>
+      <c r="F18" s="11">
+        <v>47.981999999999999</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-90.466999999999999</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-82.078000000000003</v>
+      </c>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="10">
-        <v>89500</v>
-      </c>
-      <c r="F16" s="10">
-        <v>47982</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="10" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11">
+        <f>+G18+G17</f>
+        <v>-41.400999999999996</v>
+      </c>
+      <c r="H19" s="11">
+        <f>+H18+H17</f>
+        <v>58.518000000000001</v>
+      </c>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="11">
+        <f>(+E17-E18+E15)</f>
+        <v>1598.9249999999925</v>
+      </c>
+      <c r="F21" s="11">
+        <f>(+F17-F18+F15)</f>
+        <v>871.93199999999547</v>
+      </c>
+      <c r="G21" s="11">
+        <f>+G15+G19</f>
+        <v>1263.1991058827975</v>
+      </c>
+      <c r="H21" s="11">
+        <f>+H15+H19</f>
+        <v>1551.4229999999995</v>
+      </c>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C22" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="11">
-        <f>+E15-E16+E14</f>
-        <v>1598925</v>
-      </c>
-      <c r="F17" s="11">
-        <f>+F15-F16+F14</f>
-        <v>871932</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="10" t="s">
+      <c r="E22" s="11">
+        <v>78.486000000000004</v>
+      </c>
+      <c r="F22" s="11">
+        <v>16.408000000000001</v>
+      </c>
+      <c r="G22" s="11">
+        <v>-102.904</v>
+      </c>
+      <c r="H22" s="11">
+        <v>-119.959</v>
+      </c>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C23" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="10">
-        <v>78486</v>
-      </c>
-      <c r="F18" s="10">
-        <v>16408</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="10" t="s">
+      <c r="E23" s="11">
+        <f>(+E21-E22)</f>
+        <v>1520.4389999999923</v>
+      </c>
+      <c r="F23" s="11">
+        <f>(+F21-F22)</f>
+        <v>855.52399999999545</v>
+      </c>
+      <c r="G23" s="11">
+        <f>(+G21+G22)</f>
+        <v>1160.2951058827975</v>
+      </c>
+      <c r="H23" s="11">
+        <f>(+H21+H22)</f>
+        <v>1431.4639999999995</v>
+      </c>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="10">
+        <v>56.09</v>
+      </c>
+      <c r="F24" s="10">
+        <f>50911/1000</f>
+        <v>50.911000000000001</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" ref="G24:K24" si="0">50911/1000</f>
+        <v>50.911000000000001</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="0"/>
+        <v>50.911000000000001</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="0"/>
+        <v>50.911000000000001</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="0"/>
+        <v>50.911000000000001</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="0"/>
+        <v>50.911000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="11">
-        <f>+E17-E18</f>
-        <v>1520439</v>
-      </c>
-      <c r="F19" s="11">
-        <f>+F17-F18</f>
-        <v>855524</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="10">
-        <v>56090</v>
-      </c>
-      <c r="F20" s="10">
-        <v>50911</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="13">
-        <f>+E19/E20</f>
-        <v>27.107131395970761</v>
-      </c>
-      <c r="F21" s="13">
-        <f>+F19/F20</f>
-        <v>16.804305552827483</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="10">
+      <c r="E25" s="13">
+        <f>(+E23/E24)</f>
+        <v>27.107131395970622</v>
+      </c>
+      <c r="F25" s="13">
+        <f>+F23/F24</f>
+        <v>16.804305552827394</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" ref="G25:K25" si="1">+G23/G24</f>
+        <v>22.790656358798639</v>
+      </c>
+      <c r="H25" s="13">
+        <f t="shared" si="1"/>
+        <v>28.116988470075217</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E27" s="10">
         <f>25069216-7746775</f>
         <v>17322441</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="10">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
